--- a/Jogos_do_Dia/2023-03-24_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-03-24_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="148">
   <si>
     <t>League</t>
   </si>
@@ -142,12 +142,12 @@
     <t>Croatia Second NL</t>
   </si>
   <si>
+    <t>Turkey 1. Lig</t>
+  </si>
+  <si>
     <t>Slovenia 2. SNL</t>
   </si>
   <si>
-    <t>Turkey 1. Lig</t>
-  </si>
-  <si>
     <t>France National</t>
   </si>
   <si>
@@ -157,15 +157,15 @@
     <t>Scotland League One</t>
   </si>
   <si>
+    <t>Scotland Championship</t>
+  </si>
+  <si>
     <t>Republic of Ireland First Division</t>
   </si>
   <si>
     <t>Wales Welsh Premier League</t>
   </si>
   <si>
-    <t>Scotland Championship</t>
-  </si>
-  <si>
     <t>Northern Ireland NIFL Premiership</t>
   </si>
   <si>
@@ -178,21 +178,18 @@
     <t>Colombia Categoria Primera B</t>
   </si>
   <si>
+    <t>Paraguay Division Profesional</t>
+  </si>
+  <si>
     <t>Uruguay Segunda División</t>
   </si>
   <si>
-    <t>Paraguay Division Profesional</t>
-  </si>
-  <si>
     <t>USA USL Championship</t>
   </si>
   <si>
     <t>Venezuela Segunda División</t>
   </si>
   <si>
-    <t>Brazil Copa do Nordeste</t>
-  </si>
-  <si>
     <t>Chacaritas</t>
   </si>
   <si>
@@ -220,78 +217,78 @@
     <t>Grobničan Čavle</t>
   </si>
   <si>
+    <t>Samsunspor</t>
+  </si>
+  <si>
+    <t>Denizlispor</t>
+  </si>
+  <si>
+    <t>Nafta</t>
+  </si>
+  <si>
     <t>Triglav</t>
   </si>
   <si>
-    <t>Nafta</t>
-  </si>
-  <si>
-    <t>Denizlispor</t>
-  </si>
-  <si>
-    <t>Samsunspor</t>
+    <t>Châteauroux</t>
+  </si>
+  <si>
+    <t>Sedan</t>
+  </si>
+  <si>
+    <t>Villefranche</t>
+  </si>
+  <si>
+    <t>Paris 13 Atletico</t>
+  </si>
+  <si>
+    <t>Red Star</t>
+  </si>
+  <si>
+    <t>Cholet</t>
+  </si>
+  <si>
+    <t>Stade Briochin</t>
   </si>
   <si>
     <t>Avranches</t>
   </si>
   <si>
-    <t>Stade Briochin</t>
-  </si>
-  <si>
-    <t>Cholet</t>
-  </si>
-  <si>
-    <t>Red Star</t>
-  </si>
-  <si>
-    <t>Châteauroux</t>
-  </si>
-  <si>
-    <t>Villefranche</t>
-  </si>
-  <si>
-    <t>Sedan</t>
-  </si>
-  <si>
-    <t>Paris 13 Atletico</t>
-  </si>
-  <si>
     <t>Hallescher FC</t>
   </si>
   <si>
     <t>Clyde</t>
   </si>
   <si>
+    <t>Ayr United</t>
+  </si>
+  <si>
+    <t>Treaty United</t>
+  </si>
+  <si>
+    <t>Kerry</t>
+  </si>
+  <si>
     <t>Galway United</t>
   </si>
   <si>
+    <t>Bray Wanderers</t>
+  </si>
+  <si>
     <t>Connah's Quay</t>
   </si>
   <si>
-    <t>Treaty United</t>
-  </si>
-  <si>
-    <t>Kerry</t>
-  </si>
-  <si>
-    <t>Bray Wanderers</t>
+    <t>Falkirk</t>
+  </si>
+  <si>
+    <t>Edinburgh City</t>
+  </si>
+  <si>
+    <t>Queen's Park</t>
   </si>
   <si>
     <t>Inverness CT</t>
   </si>
   <si>
-    <t>Falkirk</t>
-  </si>
-  <si>
-    <t>Edinburgh City</t>
-  </si>
-  <si>
-    <t>Queen's Park</t>
-  </si>
-  <si>
-    <t>Ayr United</t>
-  </si>
-  <si>
     <t>Dungannon Swifts</t>
   </si>
   <si>
@@ -307,12 +304,12 @@
     <t>Leones</t>
   </si>
   <si>
+    <t>Guaraní</t>
+  </si>
+  <si>
     <t>Rentistas</t>
   </si>
   <si>
-    <t>Guaraní</t>
-  </si>
-  <si>
     <t>Pittsburgh Riverhounds</t>
   </si>
   <si>
@@ -322,18 +319,6 @@
     <t>Fundación AIFI</t>
   </si>
   <si>
-    <t>Sport Recife</t>
-  </si>
-  <si>
-    <t>ABC</t>
-  </si>
-  <si>
-    <t>Ceará</t>
-  </si>
-  <si>
-    <t>Fortaleza</t>
-  </si>
-  <si>
     <t>Deportes Quindío</t>
   </si>
   <si>
@@ -367,78 +352,78 @@
     <t>Međimurje Čakovec</t>
   </si>
   <si>
+    <t>Altınordu</t>
+  </si>
+  <si>
+    <t>Boluspor</t>
+  </si>
+  <si>
+    <t>Brinje-Grosuplje</t>
+  </si>
+  <si>
     <t>Aluminij</t>
   </si>
   <si>
-    <t>Brinje-Grosuplje</t>
-  </si>
-  <si>
-    <t>Boluspor</t>
-  </si>
-  <si>
-    <t>Altınordu</t>
+    <t>Bastia-Borgo</t>
+  </si>
+  <si>
+    <t>Dunkerque</t>
+  </si>
+  <si>
+    <t>Concarneau</t>
+  </si>
+  <si>
+    <t>Bourg-en-Bresse</t>
+  </si>
+  <si>
+    <t>Orléans</t>
+  </si>
+  <si>
+    <t>Versailles</t>
+  </si>
+  <si>
+    <t>Nancy</t>
   </si>
   <si>
     <t>Le Puy F.43 Auvergne</t>
   </si>
   <si>
-    <t>Nancy</t>
-  </si>
-  <si>
-    <t>Versailles</t>
-  </si>
-  <si>
-    <t>Orléans</t>
-  </si>
-  <si>
-    <t>Bastia-Borgo</t>
-  </si>
-  <si>
-    <t>Concarneau</t>
-  </si>
-  <si>
-    <t>Dunkerque</t>
-  </si>
-  <si>
-    <t>Bourg-en-Bresse</t>
-  </si>
-  <si>
     <t>MSV Duisburg</t>
   </si>
   <si>
     <t>Airdrieonians</t>
   </si>
   <si>
+    <t>Cove Rangers</t>
+  </si>
+  <si>
+    <t>Waterford</t>
+  </si>
+  <si>
+    <t>Athlone Town</t>
+  </si>
+  <si>
     <t>Longford Town</t>
   </si>
   <si>
+    <t>Wexford</t>
+  </si>
+  <si>
     <t>Newtown</t>
   </si>
   <si>
-    <t>Waterford</t>
-  </si>
-  <si>
-    <t>Athlone Town</t>
-  </si>
-  <si>
-    <t>Wexford</t>
+    <t>Kelty Hearts</t>
+  </si>
+  <si>
+    <t>Queen of the South</t>
+  </si>
+  <si>
+    <t>Arbroath</t>
   </si>
   <si>
     <t>Partick Thistle</t>
   </si>
   <si>
-    <t>Kelty Hearts</t>
-  </si>
-  <si>
-    <t>Queen of the South</t>
-  </si>
-  <si>
-    <t>Arbroath</t>
-  </si>
-  <si>
-    <t>Cove Rangers</t>
-  </si>
-  <si>
     <t>Linfield</t>
   </si>
   <si>
@@ -454,12 +439,12 @@
     <t>Valledupar</t>
   </si>
   <si>
+    <t>Guaireña</t>
+  </si>
+  <si>
     <t>Cerrito</t>
   </si>
   <si>
-    <t>Guaireña</t>
-  </si>
-  <si>
     <t>Miami FC</t>
   </si>
   <si>
@@ -467,18 +452,6 @@
   </si>
   <si>
     <t>Marítimo</t>
-  </si>
-  <si>
-    <t>CRB</t>
-  </si>
-  <si>
-    <t>Náutico</t>
-  </si>
-  <si>
-    <t>Sergipe</t>
-  </si>
-  <si>
-    <t>Ferroviário</t>
   </si>
   <si>
     <t>Orsomarso</t>
@@ -846,7 +819,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH50"/>
+  <dimension ref="A1:AH46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -967,19 +940,19 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F2">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="H2">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="I2">
         <v>1.09</v>
@@ -1006,7 +979,7 @@
         <v>2.39</v>
       </c>
       <c r="Q2">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R2">
         <v>1.65</v>
@@ -1024,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -1071,19 +1044,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F3">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="G3">
-        <v>3.04</v>
+        <v>3.23</v>
       </c>
       <c r="H3">
-        <v>4.11</v>
+        <v>4.42</v>
       </c>
       <c r="I3">
         <v>1.06</v>
@@ -1095,13 +1068,13 @@
         <v>1.5</v>
       </c>
       <c r="L3">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="M3">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="N3">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="O3">
         <v>1.49</v>
@@ -1125,10 +1098,10 @@
         <v>2.23</v>
       </c>
       <c r="V3">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="W3">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="X3">
         <v>1.62</v>
@@ -1175,19 +1148,19 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F4">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="G4">
-        <v>2.8</v>
+        <v>2.93</v>
       </c>
       <c r="H4">
-        <v>3.09</v>
+        <v>3.25</v>
       </c>
       <c r="I4">
         <v>1.11</v>
@@ -1202,10 +1175,10 @@
         <v>2.38</v>
       </c>
       <c r="M4">
-        <v>2.3</v>
+        <v>2.43</v>
       </c>
       <c r="N4">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="O4">
         <v>1.52</v>
@@ -1229,10 +1202,10 @@
         <v>1.52</v>
       </c>
       <c r="V4">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="W4">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="X4">
         <v>1.88</v>
@@ -1279,10 +1252,10 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F5">
         <v>3.1</v>
@@ -1383,19 +1356,19 @@
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F6">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="G6">
-        <v>7</v>
+        <v>3.97</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>6.33</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1410,10 +1383,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="N6">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -1437,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="V6">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -1487,19 +1460,19 @@
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F7">
-        <v>4.75</v>
+        <v>4.77</v>
       </c>
       <c r="G7">
-        <v>3.3</v>
+        <v>2.95</v>
       </c>
       <c r="H7">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1508,16 +1481,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="L7">
-        <v>2.39</v>
+        <v>2.35</v>
       </c>
       <c r="M7">
-        <v>2.45</v>
+        <v>2.46</v>
       </c>
       <c r="N7">
-        <v>1.52</v>
+        <v>1.42</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -1541,10 +1514,10 @@
         <v>0</v>
       </c>
       <c r="V7">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="W7">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="X7">
         <v>1.21</v>
@@ -1591,19 +1564,19 @@
         <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E8" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F8">
-        <v>1.75</v>
+        <v>2.02</v>
       </c>
       <c r="G8">
-        <v>3.6</v>
+        <v>3.22</v>
       </c>
       <c r="H8">
-        <v>3.8</v>
+        <v>2.75</v>
       </c>
       <c r="I8">
         <v>1.03</v>
@@ -1618,10 +1591,10 @@
         <v>4.1</v>
       </c>
       <c r="M8">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="N8">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O8">
         <v>1.29</v>
@@ -1630,10 +1603,10 @@
         <v>3.24</v>
       </c>
       <c r="Q8">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="R8">
-        <v>2.27</v>
+        <v>2.46</v>
       </c>
       <c r="S8">
         <v>1.23</v>
@@ -1645,10 +1618,10 @@
         <v>1.95</v>
       </c>
       <c r="V8">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W8">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="X8">
         <v>2.17</v>
@@ -1695,19 +1668,19 @@
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E9" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F9">
-        <v>3.5</v>
+        <v>3.92</v>
       </c>
       <c r="G9">
-        <v>4.1</v>
+        <v>3.92</v>
       </c>
       <c r="H9">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="I9">
         <v>1.01</v>
@@ -1722,10 +1695,10 @@
         <v>6.5</v>
       </c>
       <c r="M9">
-        <v>1.39</v>
+        <v>1.28</v>
       </c>
       <c r="N9">
-        <v>2.95</v>
+        <v>3.21</v>
       </c>
       <c r="O9">
         <v>1.2</v>
@@ -1752,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="W9">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="X9">
         <v>0.97</v>
@@ -1776,13 +1749,13 @@
         <v>0</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AF9">
         <v>1.8</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="AH9">
         <v>0</v>
@@ -1799,19 +1772,19 @@
         <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1826,10 +1799,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -1900,97 +1873,97 @@
         <v>45009.58333333334</v>
       </c>
       <c r="C11">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E11" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F11">
+        <v>1.31</v>
+      </c>
+      <c r="G11">
+        <v>4.14</v>
+      </c>
+      <c r="H11">
+        <v>6.46</v>
+      </c>
+      <c r="I11">
+        <v>1.03</v>
+      </c>
+      <c r="J11">
+        <v>15.75</v>
+      </c>
+      <c r="K11">
+        <v>1.21</v>
+      </c>
+      <c r="L11">
         <v>3.9</v>
       </c>
-      <c r="G11">
-        <v>3.9</v>
-      </c>
-      <c r="H11">
-        <v>1.62</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
       <c r="M11">
-        <v>1.6</v>
+        <v>1.71</v>
       </c>
       <c r="N11">
-        <v>2.06</v>
+        <v>2.13</v>
       </c>
       <c r="O11">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="P11">
-        <v>3.24</v>
+        <v>3.1</v>
       </c>
       <c r="Q11">
-        <v>1.64</v>
+        <v>1.95</v>
       </c>
       <c r="R11">
-        <v>2.2</v>
+        <v>1.78</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="V11">
-        <v>1</v>
+        <v>2.31</v>
       </c>
       <c r="W11">
-        <v>2.5</v>
+        <v>0.67</v>
       </c>
       <c r="X11">
-        <v>1.58</v>
+        <v>2.04</v>
       </c>
       <c r="Y11">
-        <v>1.51</v>
+        <v>1.15</v>
       </c>
       <c r="Z11">
-        <v>3.09</v>
+        <v>3.19</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>3.94</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AH11">
         <v>0</v>
@@ -2004,100 +1977,100 @@
         <v>45009.58333333334</v>
       </c>
       <c r="C12">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E12" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F12">
-        <v>1.9</v>
+        <v>2.67</v>
       </c>
       <c r="G12">
-        <v>3.65</v>
+        <v>3.08</v>
       </c>
       <c r="H12">
-        <v>3.03</v>
+        <v>2.17</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>11.25</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="M12">
+        <v>1.81</v>
+      </c>
+      <c r="N12">
+        <v>1.73</v>
+      </c>
+      <c r="O12">
+        <v>1.4</v>
+      </c>
+      <c r="P12">
+        <v>2.7</v>
+      </c>
+      <c r="Q12">
+        <v>1.71</v>
+      </c>
+      <c r="R12">
+        <v>1.97</v>
+      </c>
+      <c r="S12">
+        <v>1.58</v>
+      </c>
+      <c r="T12">
+        <v>1.27</v>
+      </c>
+      <c r="U12">
+        <v>1.38</v>
+      </c>
+      <c r="V12">
+        <v>1</v>
+      </c>
+      <c r="W12">
+        <v>0.92</v>
+      </c>
+      <c r="X12">
+        <v>1.44</v>
+      </c>
+      <c r="Y12">
+        <v>1.12</v>
+      </c>
+      <c r="Z12">
+        <v>2.56</v>
+      </c>
+      <c r="AA12">
+        <v>2.82</v>
+      </c>
+      <c r="AB12">
+        <v>7.8</v>
+      </c>
+      <c r="AC12">
+        <v>1.59</v>
+      </c>
+      <c r="AD12">
+        <v>1.29</v>
+      </c>
+      <c r="AE12">
+        <v>1.61</v>
+      </c>
+      <c r="AF12">
         <v>1.7</v>
       </c>
-      <c r="N12">
-        <v>1.91</v>
-      </c>
-      <c r="O12">
-        <v>1.3</v>
-      </c>
-      <c r="P12">
-        <v>3.2</v>
-      </c>
-      <c r="Q12">
-        <v>1.66</v>
-      </c>
-      <c r="R12">
-        <v>2.16</v>
-      </c>
-      <c r="S12">
-        <v>1.25</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>1.8</v>
-      </c>
-      <c r="V12">
-        <v>1.2</v>
-      </c>
-      <c r="W12">
-        <v>1.4</v>
-      </c>
-      <c r="X12">
-        <v>1.77</v>
-      </c>
-      <c r="Y12">
-        <v>1.3</v>
-      </c>
-      <c r="Z12">
-        <v>3.07</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
-      <c r="AD12">
-        <v>0</v>
-      </c>
-      <c r="AE12">
-        <v>0</v>
-      </c>
-      <c r="AF12">
-        <v>0</v>
-      </c>
       <c r="AG12">
-        <v>0</v>
+        <v>2.53</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="13" spans="1:34">
@@ -2108,100 +2081,100 @@
         <v>45009.58333333334</v>
       </c>
       <c r="C13">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E13" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F13">
-        <v>2.56</v>
+        <v>1.9</v>
       </c>
       <c r="G13">
-        <v>3.11</v>
+        <v>3.6</v>
       </c>
       <c r="H13">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="I13">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>11.25</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
       <c r="L13">
-        <v>3.3</v>
+        <v>3.74</v>
       </c>
       <c r="M13">
-        <v>1.96</v>
+        <v>1.74</v>
       </c>
       <c r="N13">
-        <v>1.84</v>
+        <v>2.07</v>
       </c>
       <c r="O13">
+        <v>1.3</v>
+      </c>
+      <c r="P13">
+        <v>3.2</v>
+      </c>
+      <c r="Q13">
+        <v>1.67</v>
+      </c>
+      <c r="R13">
+        <v>2.15</v>
+      </c>
+      <c r="S13">
+        <v>1.25</v>
+      </c>
+      <c r="T13">
+        <v>1.22</v>
+      </c>
+      <c r="U13">
+        <v>1.8</v>
+      </c>
+      <c r="V13">
+        <v>1.2</v>
+      </c>
+      <c r="W13">
         <v>1.4</v>
       </c>
-      <c r="P13">
-        <v>2.7</v>
-      </c>
-      <c r="Q13">
-        <v>1.71</v>
-      </c>
-      <c r="R13">
-        <v>1.97</v>
-      </c>
-      <c r="S13">
-        <v>1.58</v>
-      </c>
-      <c r="T13">
-        <v>1.27</v>
-      </c>
-      <c r="U13">
-        <v>1.38</v>
-      </c>
-      <c r="V13">
-        <v>1</v>
-      </c>
-      <c r="W13">
-        <v>0.92</v>
-      </c>
       <c r="X13">
-        <v>1.44</v>
+        <v>1.77</v>
       </c>
       <c r="Y13">
-        <v>1.12</v>
+        <v>1.3</v>
       </c>
       <c r="Z13">
-        <v>2.56</v>
+        <v>3.07</v>
       </c>
       <c r="AA13">
-        <v>2.82</v>
+        <v>0</v>
       </c>
       <c r="AB13">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="AC13">
-        <v>1.59</v>
+        <v>0</v>
       </c>
       <c r="AD13">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="AE13">
-        <v>1.61</v>
+        <v>0</v>
       </c>
       <c r="AF13">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="AG13">
-        <v>2.53</v>
+        <v>0</v>
       </c>
       <c r="AH13">
-        <v>3.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:34">
@@ -2212,85 +2185,85 @@
         <v>45009.58333333334</v>
       </c>
       <c r="C14">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F14">
-        <v>1.38</v>
+        <v>4.51</v>
       </c>
       <c r="G14">
-        <v>4.4</v>
+        <v>3.78</v>
       </c>
       <c r="H14">
-        <v>6</v>
+        <v>1.51</v>
       </c>
       <c r="I14">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>15.75</v>
+        <v>14</v>
       </c>
       <c r="K14">
+        <v>1.17</v>
+      </c>
+      <c r="L14">
+        <v>4.2</v>
+      </c>
+      <c r="M14">
+        <v>1.63</v>
+      </c>
+      <c r="N14">
+        <v>2.15</v>
+      </c>
+      <c r="O14">
+        <v>1.29</v>
+      </c>
+      <c r="P14">
+        <v>3.24</v>
+      </c>
+      <c r="Q14">
+        <v>1.63</v>
+      </c>
+      <c r="R14">
+        <v>2.22</v>
+      </c>
+      <c r="S14">
+        <v>2.11</v>
+      </c>
+      <c r="T14">
         <v>1.21</v>
       </c>
-      <c r="L14">
-        <v>3.9</v>
-      </c>
-      <c r="M14">
-        <v>1.72</v>
-      </c>
-      <c r="N14">
-        <v>2.1</v>
-      </c>
-      <c r="O14">
-        <v>1.32</v>
-      </c>
-      <c r="P14">
-        <v>3.1</v>
-      </c>
-      <c r="Q14">
-        <v>1.95</v>
-      </c>
-      <c r="R14">
-        <v>1.78</v>
-      </c>
-      <c r="S14">
-        <v>1.06</v>
-      </c>
-      <c r="T14">
-        <v>1.18</v>
-      </c>
       <c r="U14">
-        <v>2.9</v>
+        <v>1.16</v>
       </c>
       <c r="V14">
-        <v>2.31</v>
+        <v>1</v>
       </c>
       <c r="W14">
-        <v>0.67</v>
+        <v>2.5</v>
       </c>
       <c r="X14">
-        <v>2.04</v>
+        <v>1.58</v>
       </c>
       <c r="Y14">
-        <v>1.15</v>
+        <v>1.51</v>
       </c>
       <c r="Z14">
-        <v>3.19</v>
+        <v>3.09</v>
       </c>
       <c r="AA14">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="AB14">
-        <v>8.1</v>
+        <v>0</v>
       </c>
       <c r="AC14">
-        <v>3.94</v>
+        <v>0</v>
       </c>
       <c r="AD14">
         <v>0</v>
@@ -2299,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="AF14">
-        <v>1.84</v>
+        <v>0</v>
       </c>
       <c r="AG14">
         <v>0</v>
@@ -2319,97 +2292,97 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E15" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F15">
-        <v>2.15</v>
+        <v>1.36</v>
       </c>
       <c r="G15">
-        <v>3.25</v>
+        <v>4.25</v>
       </c>
       <c r="H15">
-        <v>3.25</v>
+        <v>8</v>
       </c>
       <c r="I15">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="J15">
-        <v>7</v>
+        <v>13.75</v>
       </c>
       <c r="K15">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="L15">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="M15">
+        <v>1.75</v>
+      </c>
+      <c r="N15">
+        <v>1.95</v>
+      </c>
+      <c r="O15">
+        <v>1.37</v>
+      </c>
+      <c r="P15">
+        <v>3.14</v>
+      </c>
+      <c r="Q15">
         <v>2.05</v>
       </c>
-      <c r="N15">
-        <v>1.72</v>
-      </c>
-      <c r="O15">
-        <v>1.44</v>
-      </c>
-      <c r="P15">
-        <v>2.62</v>
-      </c>
-      <c r="Q15">
-        <v>1.91</v>
-      </c>
       <c r="R15">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S15">
-        <v>1.28</v>
+        <v>1.06</v>
       </c>
       <c r="T15">
-        <v>1.28</v>
+        <v>1.17</v>
       </c>
       <c r="U15">
+        <v>2.86</v>
+      </c>
+      <c r="V15">
+        <v>1.46</v>
+      </c>
+      <c r="W15">
+        <v>0.25</v>
+      </c>
+      <c r="X15">
+        <v>1.79</v>
+      </c>
+      <c r="Y15">
+        <v>0.82</v>
+      </c>
+      <c r="Z15">
+        <v>2.61</v>
+      </c>
+      <c r="AA15">
+        <v>1.17</v>
+      </c>
+      <c r="AB15">
+        <v>12.5</v>
+      </c>
+      <c r="AC15">
+        <v>5.5</v>
+      </c>
+      <c r="AD15">
+        <v>1.26</v>
+      </c>
+      <c r="AE15">
         <v>1.57</v>
       </c>
-      <c r="V15">
-        <v>1.42</v>
-      </c>
-      <c r="W15">
-        <v>1.15</v>
-      </c>
-      <c r="X15">
-        <v>1.36</v>
-      </c>
-      <c r="Y15">
-        <v>1.18</v>
-      </c>
-      <c r="Z15">
-        <v>2.54</v>
-      </c>
-      <c r="AA15">
-        <v>1.68</v>
-      </c>
-      <c r="AB15">
-        <v>7.2</v>
-      </c>
-      <c r="AC15">
-        <v>2.61</v>
-      </c>
-      <c r="AD15">
-        <v>1.4</v>
-      </c>
-      <c r="AE15">
-        <v>1.76</v>
-      </c>
       <c r="AF15">
-        <v>2.21</v>
+        <v>1.94</v>
       </c>
       <c r="AG15">
-        <v>3.04</v>
+        <v>2.44</v>
       </c>
       <c r="AH15">
-        <v>0</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="16" spans="1:34">
@@ -2423,94 +2396,94 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E16" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F16">
-        <v>2.57</v>
+        <v>2.4</v>
       </c>
       <c r="G16">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H16">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M16">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="N16">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="Q16">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="R16">
+        <v>1.8</v>
+      </c>
+      <c r="S16">
+        <v>1.4</v>
+      </c>
+      <c r="T16">
+        <v>1.32</v>
+      </c>
+      <c r="U16">
+        <v>1.5</v>
+      </c>
+      <c r="V16">
+        <v>1.5</v>
+      </c>
+      <c r="W16">
         <v>1.67</v>
       </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>0.92</v>
-      </c>
-      <c r="W16">
-        <v>1.17</v>
-      </c>
       <c r="X16">
-        <v>1.43</v>
+        <v>1.52</v>
       </c>
       <c r="Y16">
-        <v>1.23</v>
+        <v>1.47</v>
       </c>
       <c r="Z16">
-        <v>2.66</v>
+        <v>2.99</v>
       </c>
       <c r="AA16">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="AB16">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AC16">
-        <v>2.23</v>
+        <v>0</v>
       </c>
       <c r="AD16">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="AE16">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="AF16">
-        <v>2.17</v>
+        <v>0</v>
       </c>
       <c r="AG16">
-        <v>2.93</v>
+        <v>0</v>
       </c>
       <c r="AH16">
         <v>0</v>
@@ -2527,19 +2500,19 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E17" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F17">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="G17">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="H17">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="I17">
         <v>1.08</v>
@@ -2548,16 +2521,16 @@
         <v>7</v>
       </c>
       <c r="K17">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="L17">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M17">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="N17">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="O17">
         <v>1.44</v>
@@ -2566,58 +2539,58 @@
         <v>2.62</v>
       </c>
       <c r="Q17">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="R17">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="S17">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="T17">
         <v>1.32</v>
       </c>
       <c r="U17">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="V17">
-        <v>1.85</v>
+        <v>1.42</v>
       </c>
       <c r="W17">
-        <v>1.33</v>
+        <v>1.55</v>
       </c>
       <c r="X17">
-        <v>1.29</v>
+        <v>1.46</v>
       </c>
       <c r="Y17">
-        <v>1.24</v>
+        <v>1.58</v>
       </c>
       <c r="Z17">
-        <v>2.53</v>
+        <v>3.04</v>
       </c>
       <c r="AA17">
-        <v>2.11</v>
+        <v>2.23</v>
       </c>
       <c r="AB17">
-        <v>7.1</v>
+        <v>6.85</v>
       </c>
       <c r="AC17">
-        <v>1.99</v>
+        <v>1.91</v>
       </c>
       <c r="AD17">
-        <v>1.33</v>
+        <v>1.55</v>
       </c>
       <c r="AE17">
-        <v>1.68</v>
+        <v>1.93</v>
       </c>
       <c r="AF17">
-        <v>2.08</v>
+        <v>2.44</v>
       </c>
       <c r="AG17">
-        <v>2.75</v>
+        <v>3.48</v>
       </c>
       <c r="AH17">
-        <v>3.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:34">
@@ -2631,94 +2604,94 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E18" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F18">
-        <v>1.68</v>
+        <v>2.55</v>
       </c>
       <c r="G18">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="H18">
-        <v>5</v>
+        <v>2.55</v>
       </c>
       <c r="I18">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="J18">
-        <v>7.8</v>
+        <v>6.5</v>
       </c>
       <c r="K18">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="L18">
-        <v>2.84</v>
+        <v>2.75</v>
       </c>
       <c r="M18">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="N18">
-        <v>1.7</v>
+        <v>1.61</v>
       </c>
       <c r="O18">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P18">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="Q18">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="R18">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="S18">
-        <v>1.22</v>
+        <v>1.38</v>
       </c>
       <c r="T18">
         <v>1.29</v>
       </c>
       <c r="U18">
-        <v>1.84</v>
+        <v>1.38</v>
       </c>
       <c r="V18">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="W18">
-        <v>1.38</v>
+        <v>1.46</v>
       </c>
       <c r="X18">
-        <v>1.72</v>
+        <v>1.48</v>
       </c>
       <c r="Y18">
-        <v>1.28</v>
+        <v>1.4</v>
       </c>
       <c r="Z18">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="AA18">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>6.9</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AD18">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AE18">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="AF18">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AG18">
-        <v>0</v>
+        <v>3.56</v>
       </c>
       <c r="AH18">
         <v>0</v>
@@ -2735,97 +2708,97 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E19" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F19">
+        <v>1.67</v>
+      </c>
+      <c r="G19">
+        <v>3.3</v>
+      </c>
+      <c r="H19">
+        <v>4.8</v>
+      </c>
+      <c r="I19">
+        <v>1.04</v>
+      </c>
+      <c r="J19">
+        <v>7.8</v>
+      </c>
+      <c r="K19">
         <v>1.35</v>
       </c>
-      <c r="G19">
-        <v>4.5</v>
-      </c>
-      <c r="H19">
-        <v>8.5</v>
-      </c>
-      <c r="I19">
-        <v>1.03</v>
-      </c>
-      <c r="J19">
-        <v>13.75</v>
-      </c>
-      <c r="K19">
-        <v>1.25</v>
-      </c>
       <c r="L19">
-        <v>3.75</v>
+        <v>2.84</v>
       </c>
       <c r="M19">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="N19">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="O19">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="P19">
+        <v>2.6</v>
+      </c>
+      <c r="Q19">
+        <v>1.97</v>
+      </c>
+      <c r="R19">
+        <v>1.71</v>
+      </c>
+      <c r="S19">
+        <v>1.22</v>
+      </c>
+      <c r="T19">
+        <v>1.29</v>
+      </c>
+      <c r="U19">
+        <v>1.84</v>
+      </c>
+      <c r="V19">
+        <v>1.5</v>
+      </c>
+      <c r="W19">
+        <v>1.38</v>
+      </c>
+      <c r="X19">
+        <v>1.72</v>
+      </c>
+      <c r="Y19">
+        <v>1.28</v>
+      </c>
+      <c r="Z19">
+        <v>3</v>
+      </c>
+      <c r="AA19">
+        <v>1.5</v>
+      </c>
+      <c r="AB19">
+        <v>7.5</v>
+      </c>
+      <c r="AC19">
         <v>3.14</v>
       </c>
-      <c r="Q19">
-        <v>2.04</v>
-      </c>
-      <c r="R19">
-        <v>1.74</v>
-      </c>
-      <c r="S19">
-        <v>1.06</v>
-      </c>
-      <c r="T19">
-        <v>1.17</v>
-      </c>
-      <c r="U19">
-        <v>2.86</v>
-      </c>
-      <c r="V19">
-        <v>1.46</v>
-      </c>
-      <c r="W19">
-        <v>0.25</v>
-      </c>
-      <c r="X19">
-        <v>1.79</v>
-      </c>
-      <c r="Y19">
-        <v>0.82</v>
-      </c>
-      <c r="Z19">
-        <v>2.61</v>
-      </c>
-      <c r="AA19">
-        <v>1.17</v>
-      </c>
-      <c r="AB19">
-        <v>12.5</v>
-      </c>
-      <c r="AC19">
-        <v>5.5</v>
-      </c>
       <c r="AD19">
-        <v>1.26</v>
+        <v>1.48</v>
       </c>
       <c r="AE19">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="AF19">
-        <v>1.94</v>
+        <v>2.26</v>
       </c>
       <c r="AG19">
-        <v>2.44</v>
+        <v>3.2</v>
       </c>
       <c r="AH19">
-        <v>3.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:34">
@@ -2839,19 +2812,19 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E20" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F20">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="G20">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H20">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="I20">
         <v>1.08</v>
@@ -2860,16 +2833,16 @@
         <v>7</v>
       </c>
       <c r="K20">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="L20">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="M20">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="N20">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="O20">
         <v>1.44</v>
@@ -2884,52 +2857,52 @@
         <v>1.8</v>
       </c>
       <c r="S20">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="T20">
         <v>1.32</v>
       </c>
       <c r="U20">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="V20">
-        <v>1.42</v>
+        <v>1.85</v>
       </c>
       <c r="W20">
-        <v>1.55</v>
+        <v>1.33</v>
       </c>
       <c r="X20">
-        <v>1.46</v>
+        <v>1.29</v>
       </c>
       <c r="Y20">
-        <v>1.58</v>
+        <v>1.24</v>
       </c>
       <c r="Z20">
-        <v>3.04</v>
+        <v>2.53</v>
       </c>
       <c r="AA20">
-        <v>2.23</v>
+        <v>2.01</v>
       </c>
       <c r="AB20">
-        <v>6.85</v>
+        <v>7.1</v>
       </c>
       <c r="AC20">
-        <v>1.91</v>
+        <v>2.09</v>
       </c>
       <c r="AD20">
-        <v>1.55</v>
+        <v>1.33</v>
       </c>
       <c r="AE20">
-        <v>1.93</v>
+        <v>1.68</v>
       </c>
       <c r="AF20">
-        <v>2.44</v>
+        <v>2.08</v>
       </c>
       <c r="AG20">
-        <v>3.48</v>
+        <v>2.75</v>
       </c>
       <c r="AH20">
-        <v>0</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="21" spans="1:34">
@@ -2943,94 +2916,94 @@
         <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E21" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F21">
-        <v>2.35</v>
+        <v>2.6</v>
       </c>
       <c r="G21">
-        <v>3.05</v>
+        <v>2.88</v>
       </c>
       <c r="H21">
-        <v>2.72</v>
+        <v>2.63</v>
       </c>
       <c r="I21">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>1.51</v>
+      </c>
+      <c r="L21">
+        <v>2.39</v>
+      </c>
+      <c r="M21">
+        <v>2.5</v>
+      </c>
+      <c r="N21">
+        <v>1.5</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>2.1</v>
+      </c>
+      <c r="R21">
+        <v>1.67</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0.92</v>
+      </c>
+      <c r="W21">
+        <v>1.17</v>
+      </c>
+      <c r="X21">
+        <v>1.43</v>
+      </c>
+      <c r="Y21">
+        <v>1.23</v>
+      </c>
+      <c r="Z21">
+        <v>2.66</v>
+      </c>
+      <c r="AA21">
+        <v>1.9</v>
+      </c>
+      <c r="AB21">
         <v>7</v>
       </c>
-      <c r="K21">
-        <v>1.36</v>
-      </c>
-      <c r="L21">
-        <v>3</v>
-      </c>
-      <c r="M21">
-        <v>2.1</v>
-      </c>
-      <c r="N21">
+      <c r="AC21">
+        <v>2.23</v>
+      </c>
+      <c r="AD21">
+        <v>1.37</v>
+      </c>
+      <c r="AE21">
         <v>1.68</v>
       </c>
-      <c r="O21">
-        <v>1.44</v>
-      </c>
-      <c r="P21">
-        <v>2.62</v>
-      </c>
-      <c r="Q21">
-        <v>1.85</v>
-      </c>
-      <c r="R21">
-        <v>1.85</v>
-      </c>
-      <c r="S21">
-        <v>1.4</v>
-      </c>
-      <c r="T21">
-        <v>1.32</v>
-      </c>
-      <c r="U21">
-        <v>1.5</v>
-      </c>
-      <c r="V21">
-        <v>1.5</v>
-      </c>
-      <c r="W21">
-        <v>1.67</v>
-      </c>
-      <c r="X21">
-        <v>1.52</v>
-      </c>
-      <c r="Y21">
-        <v>1.47</v>
-      </c>
-      <c r="Z21">
-        <v>2.99</v>
-      </c>
-      <c r="AA21">
-        <v>0</v>
-      </c>
-      <c r="AB21">
-        <v>0</v>
-      </c>
-      <c r="AC21">
-        <v>0</v>
-      </c>
-      <c r="AD21">
-        <v>0</v>
-      </c>
-      <c r="AE21">
-        <v>0</v>
-      </c>
       <c r="AF21">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="AG21">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="AH21">
         <v>0</v>
@@ -3047,25 +3020,25 @@
         <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E22" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F22">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="G22">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="H22">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="I22">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="J22">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="K22">
         <v>1.4</v>
@@ -3074,10 +3047,10 @@
         <v>2.75</v>
       </c>
       <c r="M22">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="N22">
-        <v>1.55</v>
+        <v>1.61</v>
       </c>
       <c r="O22">
         <v>1.44</v>
@@ -3092,52 +3065,52 @@
         <v>1.8</v>
       </c>
       <c r="S22">
-        <v>1.38</v>
+        <v>1.28</v>
       </c>
       <c r="T22">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="U22">
-        <v>1.38</v>
+        <v>1.57</v>
       </c>
       <c r="V22">
-        <v>1</v>
+        <v>1.42</v>
       </c>
       <c r="W22">
-        <v>1.46</v>
+        <v>1.15</v>
       </c>
       <c r="X22">
-        <v>1.48</v>
+        <v>1.36</v>
       </c>
       <c r="Y22">
+        <v>1.18</v>
+      </c>
+      <c r="Z22">
+        <v>2.54</v>
+      </c>
+      <c r="AA22">
+        <v>1.67</v>
+      </c>
+      <c r="AB22">
+        <v>7.4</v>
+      </c>
+      <c r="AC22">
+        <v>2.61</v>
+      </c>
+      <c r="AD22">
         <v>1.4</v>
       </c>
-      <c r="Z22">
-        <v>2.88</v>
-      </c>
-      <c r="AA22">
-        <v>1.94</v>
-      </c>
-      <c r="AB22">
-        <v>6.85</v>
-      </c>
-      <c r="AC22">
-        <v>2.19</v>
-      </c>
-      <c r="AD22">
-        <v>1.55</v>
-      </c>
       <c r="AE22">
-        <v>1.96</v>
+        <v>1.76</v>
       </c>
       <c r="AF22">
-        <v>2.45</v>
+        <v>2.21</v>
       </c>
       <c r="AG22">
-        <v>3.56</v>
+        <v>3.04</v>
       </c>
       <c r="AH22">
-        <v>0</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="23" spans="1:34">
@@ -3151,19 +3124,19 @@
         <v>29</v>
       </c>
       <c r="D23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E23" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F23">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="G23">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="H23">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="I23">
         <v>1.05</v>
@@ -3178,10 +3151,10 @@
         <v>3.5</v>
       </c>
       <c r="M23">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="N23">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="O23">
         <v>1.36</v>
@@ -3255,19 +3228,19 @@
         <v>30</v>
       </c>
       <c r="D24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E24" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F24">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="G24">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H24">
-        <v>1.77</v>
+        <v>1.67</v>
       </c>
       <c r="I24">
         <v>1.03</v>
@@ -3282,10 +3255,10 @@
         <v>3.95</v>
       </c>
       <c r="M24">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="N24">
-        <v>2.1</v>
+        <v>2.23</v>
       </c>
       <c r="O24">
         <v>1.32</v>
@@ -3324,13 +3297,13 @@
         <v>2.78</v>
       </c>
       <c r="AA24">
-        <v>0</v>
+        <v>3.78</v>
       </c>
       <c r="AB24">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AC24">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AD24">
         <v>0</v>
@@ -3356,100 +3329,100 @@
         <v>45009.69791666666</v>
       </c>
       <c r="C25">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E25" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F25">
-        <v>1.36</v>
+        <v>1.55</v>
       </c>
       <c r="G25">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="H25">
-        <v>7</v>
+        <v>4.6</v>
       </c>
       <c r="I25">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="J25">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="K25">
         <v>1.25</v>
       </c>
       <c r="L25">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M25">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="N25">
+        <v>2.05</v>
+      </c>
+      <c r="O25">
+        <v>1.34</v>
+      </c>
+      <c r="P25">
+        <v>3.05</v>
+      </c>
+      <c r="Q25">
+        <v>1.8</v>
+      </c>
+      <c r="R25">
         <v>1.95</v>
       </c>
-      <c r="O25">
-        <v>1.33</v>
-      </c>
-      <c r="P25">
-        <v>3</v>
-      </c>
-      <c r="Q25">
-        <v>2.1</v>
-      </c>
-      <c r="R25">
-        <v>1.65</v>
-      </c>
       <c r="S25">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="T25">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="U25">
-        <v>3</v>
+        <v>2.35</v>
       </c>
       <c r="V25">
-        <v>3</v>
+        <v>1.43</v>
       </c>
       <c r="W25">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="X25">
-        <v>2.41</v>
+        <v>1.51</v>
       </c>
       <c r="Y25">
-        <v>0.64</v>
+        <v>1.13</v>
       </c>
       <c r="Z25">
+        <v>2.64</v>
+      </c>
+      <c r="AA25">
+        <v>1.35</v>
+      </c>
+      <c r="AB25">
+        <v>9.5</v>
+      </c>
+      <c r="AC25">
+        <v>3.85</v>
+      </c>
+      <c r="AD25">
+        <v>1.23</v>
+      </c>
+      <c r="AE25">
+        <v>1.43</v>
+      </c>
+      <c r="AF25">
+        <v>1.75</v>
+      </c>
+      <c r="AG25">
+        <v>2.25</v>
+      </c>
+      <c r="AH25">
         <v>3.05</v>
-      </c>
-      <c r="AA25">
-        <v>0</v>
-      </c>
-      <c r="AB25">
-        <v>0</v>
-      </c>
-      <c r="AC25">
-        <v>0</v>
-      </c>
-      <c r="AD25">
-        <v>0</v>
-      </c>
-      <c r="AE25">
-        <v>0</v>
-      </c>
-      <c r="AF25">
-        <v>0</v>
-      </c>
-      <c r="AG25">
-        <v>0</v>
-      </c>
-      <c r="AH25">
-        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:34">
@@ -3463,94 +3436,94 @@
         <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E26" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F26">
+        <v>4.35</v>
+      </c>
+      <c r="G26">
+        <v>3.9</v>
+      </c>
+      <c r="H26">
+        <v>1.58</v>
+      </c>
+      <c r="I26">
+        <v>1.01</v>
+      </c>
+      <c r="J26">
+        <v>10</v>
+      </c>
+      <c r="K26">
+        <v>1.23</v>
+      </c>
+      <c r="L26">
+        <v>3.62</v>
+      </c>
+      <c r="M26">
+        <v>1.75</v>
+      </c>
+      <c r="N26">
+        <v>2.03</v>
+      </c>
+      <c r="O26">
+        <v>1.36</v>
+      </c>
+      <c r="P26">
+        <v>3.11</v>
+      </c>
+      <c r="Q26">
+        <v>1.81</v>
+      </c>
+      <c r="R26">
+        <v>1.89</v>
+      </c>
+      <c r="S26">
+        <v>1.94</v>
+      </c>
+      <c r="T26">
+        <v>1.19</v>
+      </c>
+      <c r="U26">
+        <v>1.16</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>3</v>
+      </c>
+      <c r="X26">
         <v>1.56</v>
       </c>
-      <c r="G26">
-        <v>3.85</v>
-      </c>
-      <c r="H26">
-        <v>4.5</v>
-      </c>
-      <c r="I26">
-        <v>1.02</v>
-      </c>
-      <c r="J26">
-        <v>14</v>
-      </c>
-      <c r="K26">
-        <v>1.22</v>
-      </c>
-      <c r="L26">
-        <v>4</v>
-      </c>
-      <c r="M26">
-        <v>1.72</v>
-      </c>
-      <c r="N26">
-        <v>2.05</v>
-      </c>
-      <c r="O26">
-        <v>1.33</v>
-      </c>
-      <c r="P26">
-        <v>3.14</v>
-      </c>
-      <c r="Q26">
-        <v>1.74</v>
-      </c>
-      <c r="R26">
-        <v>2.04</v>
-      </c>
-      <c r="S26">
-        <v>1.13</v>
-      </c>
-      <c r="T26">
-        <v>1.21</v>
-      </c>
-      <c r="U26">
-        <v>2.31</v>
-      </c>
-      <c r="V26">
-        <v>2.43</v>
-      </c>
-      <c r="W26">
-        <v>1.31</v>
-      </c>
-      <c r="X26">
-        <v>1.52</v>
-      </c>
       <c r="Y26">
-        <v>1.26</v>
+        <v>1.76</v>
       </c>
       <c r="Z26">
-        <v>2.78</v>
+        <v>3.32</v>
       </c>
       <c r="AA26">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC26">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AD26">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AE26">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AF26">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="AG26">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="AH26">
         <v>0</v>
@@ -3558,7 +3531,7 @@
     </row>
     <row r="27" spans="1:34">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B27" s="2">
         <v>45009.69791666666</v>
@@ -3567,73 +3540,73 @@
         <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E27" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F27">
-        <v>4.75</v>
+        <v>3.35</v>
       </c>
       <c r="G27">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H27">
-        <v>1.6</v>
+        <v>1.87</v>
       </c>
       <c r="I27">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>3.62</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="N27">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="O27">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="P27">
-        <v>3.11</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>1.81</v>
+        <v>0</v>
       </c>
       <c r="R27">
-        <v>1.89</v>
+        <v>0</v>
       </c>
       <c r="S27">
-        <v>1.94</v>
+        <v>0</v>
       </c>
       <c r="T27">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="U27">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="V27">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="W27">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="X27">
-        <v>1.56</v>
+        <v>0.84</v>
       </c>
       <c r="Y27">
-        <v>1.76</v>
+        <v>1.32</v>
       </c>
       <c r="Z27">
-        <v>3.32</v>
+        <v>2.16</v>
       </c>
       <c r="AA27">
         <v>0</v>
@@ -3662,7 +3635,7 @@
     </row>
     <row r="28" spans="1:34">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B28" s="2">
         <v>45009.69791666666</v>
@@ -3671,94 +3644,94 @@
         <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E28" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F28">
+        <v>1.35</v>
+      </c>
+      <c r="G28">
+        <v>4.4</v>
+      </c>
+      <c r="H28">
+        <v>6.6</v>
+      </c>
+      <c r="I28">
+        <v>1.04</v>
+      </c>
+      <c r="J28">
+        <v>10</v>
+      </c>
+      <c r="K28">
+        <v>1.25</v>
+      </c>
+      <c r="L28">
         <v>3.6</v>
       </c>
-      <c r="G28">
-        <v>3.5</v>
-      </c>
-      <c r="H28">
-        <v>1.85</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
       <c r="M28">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="N28">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="R28">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="T28">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="U28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V28">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="W28">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="X28">
-        <v>0.84</v>
+        <v>2.41</v>
       </c>
       <c r="Y28">
-        <v>1.32</v>
+        <v>0.64</v>
       </c>
       <c r="Z28">
-        <v>2.16</v>
+        <v>3.05</v>
       </c>
       <c r="AA28">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AC28">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="AD28">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AE28">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AF28">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AG28">
-        <v>0</v>
+        <v>2.41</v>
       </c>
       <c r="AH28">
         <v>0</v>
@@ -3766,7 +3739,7 @@
     </row>
     <row r="29" spans="1:34">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B29" s="2">
         <v>45009.69791666666</v>
@@ -3775,19 +3748,19 @@
         <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E29" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="G29">
         <v>3.3</v>
       </c>
       <c r="H29">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="I29">
         <v>1.01</v>
@@ -3802,7 +3775,7 @@
         <v>3.4</v>
       </c>
       <c r="M29">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="N29">
         <v>2</v>
@@ -3844,28 +3817,28 @@
         <v>3.06</v>
       </c>
       <c r="AA29">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AB29">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="AC29">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="AD29">
         <v>0</v>
       </c>
       <c r="AE29">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AF29">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="AG29">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AH29">
-        <v>0</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="30" spans="1:34">
@@ -3876,100 +3849,100 @@
         <v>45009.69791666666</v>
       </c>
       <c r="C30">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E30" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F30">
-        <v>3.1</v>
+        <v>1.53</v>
       </c>
       <c r="G30">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="H30">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="I30">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="J30">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="K30">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="L30">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M30">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="N30">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="O30">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="P30">
-        <v>2.88</v>
+        <v>3.14</v>
       </c>
       <c r="Q30">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="R30">
-        <v>1.91</v>
+        <v>2.04</v>
       </c>
       <c r="S30">
-        <v>1.68</v>
+        <v>1.13</v>
       </c>
       <c r="T30">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="U30">
-        <v>1.33</v>
+        <v>2.31</v>
       </c>
       <c r="V30">
-        <v>1.15</v>
+        <v>2.43</v>
       </c>
       <c r="W30">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="X30">
-        <v>1.22</v>
+        <v>1.52</v>
       </c>
       <c r="Y30">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="Z30">
-        <v>2.44</v>
+        <v>2.78</v>
       </c>
       <c r="AA30">
-        <v>2.32</v>
+        <v>0</v>
       </c>
       <c r="AB30">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="AC30">
-        <v>1.84</v>
+        <v>0</v>
       </c>
       <c r="AD30">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="AE30">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="AF30">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="AG30">
-        <v>2.33</v>
+        <v>0</v>
       </c>
       <c r="AH30">
-        <v>3.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:34">
@@ -3983,19 +3956,19 @@
         <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E31" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F31">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="G31">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="H31">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="I31">
         <v>1.03</v>
@@ -4013,7 +3986,7 @@
         <v>1.68</v>
       </c>
       <c r="N31">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="O31">
         <v>1.32</v>
@@ -4052,13 +4025,13 @@
         <v>2.76</v>
       </c>
       <c r="AA31">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AB31">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AC31">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="AD31">
         <v>1.22</v>
@@ -4087,19 +4060,19 @@
         <v>30</v>
       </c>
       <c r="D32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E32" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F32">
-        <v>2.66</v>
+        <v>2.92</v>
       </c>
       <c r="G32">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H32">
-        <v>2.24</v>
+        <v>2.1</v>
       </c>
       <c r="I32">
         <v>1.03</v>
@@ -4114,7 +4087,7 @@
         <v>3.8</v>
       </c>
       <c r="M32">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="N32">
         <v>2.1</v>
@@ -4156,13 +4129,13 @@
         <v>2.77</v>
       </c>
       <c r="AA32">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="AB32">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AC32">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AD32">
         <v>1.2</v>
@@ -4182,7 +4155,7 @@
     </row>
     <row r="33" spans="1:34">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B33" s="2">
         <v>45009.69791666666</v>
@@ -4191,19 +4164,19 @@
         <v>30</v>
       </c>
       <c r="D33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E33" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F33">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="G33">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="H33">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="I33">
         <v>1.01</v>
@@ -4218,10 +4191,10 @@
         <v>3.62</v>
       </c>
       <c r="M33">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="N33">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="O33">
         <v>1.38</v>
@@ -4286,7 +4259,7 @@
     </row>
     <row r="34" spans="1:34">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B34" s="2">
         <v>45009.69791666666</v>
@@ -4295,97 +4268,97 @@
         <v>30</v>
       </c>
       <c r="D34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E34" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F34">
-        <v>1.57</v>
+        <v>2.88</v>
       </c>
       <c r="G34">
-        <v>4</v>
+        <v>3.13</v>
       </c>
       <c r="H34">
-        <v>5.5</v>
+        <v>2.03</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="J34">
-        <v>10.5</v>
+        <v>8</v>
       </c>
       <c r="K34">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="L34">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M34">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="N34">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="O34">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="P34">
-        <v>3.05</v>
+        <v>2.88</v>
       </c>
       <c r="Q34">
         <v>1.8</v>
       </c>
       <c r="R34">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S34">
-        <v>1.11</v>
+        <v>1.68</v>
       </c>
       <c r="T34">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="U34">
-        <v>2.35</v>
+        <v>1.33</v>
       </c>
       <c r="V34">
-        <v>1.43</v>
+        <v>1.15</v>
       </c>
       <c r="W34">
-        <v>0.5</v>
+        <v>1.29</v>
       </c>
       <c r="X34">
-        <v>1.51</v>
+        <v>1.22</v>
       </c>
       <c r="Y34">
-        <v>1.13</v>
+        <v>1.22</v>
       </c>
       <c r="Z34">
-        <v>2.64</v>
+        <v>2.44</v>
       </c>
       <c r="AA34">
-        <v>1.35</v>
+        <v>2.32</v>
       </c>
       <c r="AB34">
-        <v>9.5</v>
+        <v>7.6</v>
       </c>
       <c r="AC34">
-        <v>3.85</v>
+        <v>1.84</v>
       </c>
       <c r="AD34">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="AE34">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="AF34">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AG34">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AH34">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="35" spans="1:34">
@@ -4399,16 +4372,16 @@
         <v>33</v>
       </c>
       <c r="D35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E35" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F35">
-        <v>13</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G35">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="H35">
         <v>1.2</v>
@@ -4426,10 +4399,10 @@
         <v>4.97</v>
       </c>
       <c r="M35">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="N35">
-        <v>2.4</v>
+        <v>2.23</v>
       </c>
       <c r="O35">
         <v>1.25</v>
@@ -4503,19 +4476,19 @@
         <v>30</v>
       </c>
       <c r="D36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F36">
-        <v>2.19</v>
+        <v>2.05</v>
       </c>
       <c r="G36">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="H36">
-        <v>2.73</v>
+        <v>2.87</v>
       </c>
       <c r="I36">
         <v>1</v>
@@ -4530,10 +4503,10 @@
         <v>3.8</v>
       </c>
       <c r="M36">
-        <v>1.68</v>
+        <v>1.78</v>
       </c>
       <c r="N36">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="O36">
         <v>1.36</v>
@@ -4572,13 +4545,13 @@
         <v>2.27</v>
       </c>
       <c r="AA36">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AB36">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AC36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD36">
         <v>1.48</v>
@@ -4607,19 +4580,19 @@
         <v>33</v>
       </c>
       <c r="D37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E37" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F37">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="G37">
-        <v>3.4</v>
+        <v>3.28</v>
       </c>
       <c r="H37">
-        <v>6</v>
+        <v>5.43</v>
       </c>
       <c r="I37">
         <v>1.1</v>
@@ -4628,16 +4601,16 @@
         <v>6.5</v>
       </c>
       <c r="K37">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="L37">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="M37">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="N37">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="O37">
         <v>1.5</v>
@@ -4702,7 +4675,7 @@
     </row>
     <row r="38" spans="1:34">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B38" s="2">
         <v>45009.70833333334</v>
@@ -4711,19 +4684,19 @@
         <v>6</v>
       </c>
       <c r="D38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E38" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F38">
-        <v>2.15</v>
+        <v>2.41</v>
       </c>
       <c r="G38">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H38">
-        <v>2.88</v>
+        <v>2.49</v>
       </c>
       <c r="I38">
         <v>1.01</v>
@@ -4738,10 +4711,10 @@
         <v>3.6</v>
       </c>
       <c r="M38">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="N38">
-        <v>2.05</v>
+        <v>1.92</v>
       </c>
       <c r="O38">
         <v>1.36</v>
@@ -4780,22 +4753,22 @@
         <v>2.72</v>
       </c>
       <c r="AA38">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AB38">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AC38">
-        <v>0</v>
+        <v>2.53</v>
       </c>
       <c r="AD38">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AE38">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="AF38">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AG38">
         <v>0</v>
@@ -4815,19 +4788,19 @@
         <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E39" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F39">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="G39">
         <v>3.3</v>
       </c>
       <c r="H39">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="I39">
         <v>1.04</v>
@@ -4842,10 +4815,10 @@
         <v>2.84</v>
       </c>
       <c r="M39">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="N39">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="O39">
         <v>1.44</v>
@@ -4884,22 +4857,22 @@
         <v>2.4</v>
       </c>
       <c r="AA39">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AB39">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AC39">
-        <v>0</v>
+        <v>3.02</v>
       </c>
       <c r="AD39">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="AE39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF39">
-        <v>0</v>
+        <v>2.53</v>
       </c>
       <c r="AG39">
         <v>0</v>
@@ -4916,22 +4889,22 @@
         <v>45009.79166666666</v>
       </c>
       <c r="C40">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E40" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -4946,10 +4919,10 @@
         <v>0</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="N40">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="O40">
         <v>0</v>
@@ -4973,19 +4946,19 @@
         <v>0</v>
       </c>
       <c r="V40">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="W40">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="X40">
-        <v>1.18</v>
+        <v>1.54</v>
       </c>
       <c r="Y40">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="Z40">
-        <v>2.24</v>
+        <v>2.57</v>
       </c>
       <c r="AA40">
         <v>0</v>
@@ -5020,76 +4993,76 @@
         <v>45009.79166666666</v>
       </c>
       <c r="C41">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E41" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F41">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="G41">
+        <v>3.2</v>
+      </c>
+      <c r="H41">
         <v>4</v>
       </c>
-      <c r="H41">
-        <v>5</v>
-      </c>
       <c r="I41">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="M41">
-        <v>2.1</v>
+        <v>2.28</v>
       </c>
       <c r="N41">
-        <v>1.68</v>
+        <v>1.57</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="P41">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="Q41">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="R41">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="S41">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="T41">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="U41">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="V41">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="W41">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="X41">
-        <v>1.54</v>
+        <v>1.18</v>
       </c>
       <c r="Y41">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="Z41">
-        <v>2.57</v>
+        <v>2.24</v>
       </c>
       <c r="AA41">
         <v>0</v>
@@ -5127,19 +5100,19 @@
         <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E42" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F42">
-        <v>1.91</v>
+        <v>1.99</v>
       </c>
       <c r="G42">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H42">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -5154,10 +5127,10 @@
         <v>0</v>
       </c>
       <c r="M42">
-        <v>1.95</v>
+        <v>1.66</v>
       </c>
       <c r="N42">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="O42">
         <v>0</v>
@@ -5231,19 +5204,19 @@
         <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E43" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F43">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="G43">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="H43">
-        <v>4.33</v>
+        <v>4.05</v>
       </c>
       <c r="I43">
         <v>1.06</v>
@@ -5258,10 +5231,10 @@
         <v>2.92</v>
       </c>
       <c r="M43">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="N43">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="O43">
         <v>1.45</v>
@@ -5300,25 +5273,25 @@
         <v>2.9</v>
       </c>
       <c r="AA43">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AB43">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC43">
-        <v>0</v>
+        <v>3.02</v>
       </c>
       <c r="AD43">
         <v>0</v>
       </c>
       <c r="AE43">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AF43">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AG43">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AH43">
         <v>0</v>
@@ -5335,19 +5308,19 @@
         <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E44" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -5362,10 +5335,10 @@
         <v>0</v>
       </c>
       <c r="M44">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="N44">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="O44">
         <v>0</v>
@@ -5374,10 +5347,10 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="R44">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="S44">
         <v>0</v>
@@ -5430,100 +5403,100 @@
     </row>
     <row r="45" spans="1:34">
       <c r="A45" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B45" s="2">
-        <v>45009.83333333334</v>
+        <v>45009.83680555555</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E45" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>4.85</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="M45">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="N45">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="O45">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="P45">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="Q45">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="R45">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="S45">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="T45">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="U45">
-        <v>0</v>
+        <v>2.39</v>
       </c>
       <c r="V45">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W45">
-        <v>1.63</v>
+        <v>0.25</v>
       </c>
       <c r="X45">
-        <v>2.06</v>
+        <v>1.54</v>
       </c>
       <c r="Y45">
-        <v>1.51</v>
+        <v>0.82</v>
       </c>
       <c r="Z45">
-        <v>3.57</v>
+        <v>2.36</v>
       </c>
       <c r="AA45">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AB45">
-        <v>0</v>
+        <v>10.25</v>
       </c>
       <c r="AC45">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="AD45">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AE45">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="AF45">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="AG45">
         <v>0</v>
@@ -5534,82 +5507,82 @@
     </row>
     <row r="46" spans="1:34">
       <c r="A46" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B46" s="2">
-        <v>45009.83333333334</v>
+        <v>45009.875</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="D46" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E46" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K46">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="L46">
-        <v>0</v>
+        <v>3.83</v>
       </c>
       <c r="M46">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="N46">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="P46">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="Q46">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="R46">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="S46">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="T46">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="U46">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="V46">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="W46">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="X46">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="Y46">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="Z46">
-        <v>2.71</v>
+        <v>0</v>
       </c>
       <c r="AA46">
         <v>0</v>
@@ -5633,422 +5606,6 @@
         <v>0</v>
       </c>
       <c r="AH46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:34">
-      <c r="A47" t="s">
-        <v>58</v>
-      </c>
-      <c r="B47" s="2">
-        <v>45009.83333333334</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47" t="s">
-        <v>104</v>
-      </c>
-      <c r="E47" t="s">
-        <v>153</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
-      <c r="N47">
-        <v>0</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>0</v>
-      </c>
-      <c r="R47">
-        <v>0</v>
-      </c>
-      <c r="S47">
-        <v>0</v>
-      </c>
-      <c r="T47">
-        <v>0</v>
-      </c>
-      <c r="U47">
-        <v>0</v>
-      </c>
-      <c r="V47">
-        <v>2</v>
-      </c>
-      <c r="W47">
-        <v>1.38</v>
-      </c>
-      <c r="X47">
-        <v>1.93</v>
-      </c>
-      <c r="Y47">
-        <v>1.09</v>
-      </c>
-      <c r="Z47">
-        <v>3.02</v>
-      </c>
-      <c r="AA47">
-        <v>0</v>
-      </c>
-      <c r="AB47">
-        <v>0</v>
-      </c>
-      <c r="AC47">
-        <v>0</v>
-      </c>
-      <c r="AD47">
-        <v>0</v>
-      </c>
-      <c r="AE47">
-        <v>0</v>
-      </c>
-      <c r="AF47">
-        <v>0</v>
-      </c>
-      <c r="AG47">
-        <v>0</v>
-      </c>
-      <c r="AH47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:34">
-      <c r="A48" t="s">
-        <v>58</v>
-      </c>
-      <c r="B48" s="2">
-        <v>45009.83333333334</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48" t="s">
-        <v>105</v>
-      </c>
-      <c r="E48" t="s">
-        <v>154</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-      <c r="M48">
-        <v>0</v>
-      </c>
-      <c r="N48">
-        <v>0</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>0</v>
-      </c>
-      <c r="R48">
-        <v>0</v>
-      </c>
-      <c r="S48">
-        <v>0</v>
-      </c>
-      <c r="T48">
-        <v>0</v>
-      </c>
-      <c r="U48">
-        <v>0</v>
-      </c>
-      <c r="V48">
-        <v>2.25</v>
-      </c>
-      <c r="W48">
-        <v>1.5</v>
-      </c>
-      <c r="X48">
-        <v>2.17</v>
-      </c>
-      <c r="Y48">
-        <v>1.35</v>
-      </c>
-      <c r="Z48">
-        <v>3.52</v>
-      </c>
-      <c r="AA48">
-        <v>0</v>
-      </c>
-      <c r="AB48">
-        <v>0</v>
-      </c>
-      <c r="AC48">
-        <v>0</v>
-      </c>
-      <c r="AD48">
-        <v>0</v>
-      </c>
-      <c r="AE48">
-        <v>0</v>
-      </c>
-      <c r="AF48">
-        <v>0</v>
-      </c>
-      <c r="AG48">
-        <v>0</v>
-      </c>
-      <c r="AH48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:34">
-      <c r="A49" t="s">
-        <v>53</v>
-      </c>
-      <c r="B49" s="2">
-        <v>45009.83680555555</v>
-      </c>
-      <c r="C49">
-        <v>9</v>
-      </c>
-      <c r="D49" t="s">
-        <v>106</v>
-      </c>
-      <c r="E49" t="s">
-        <v>155</v>
-      </c>
-      <c r="F49">
-        <v>1.55</v>
-      </c>
-      <c r="G49">
-        <v>3.6</v>
-      </c>
-      <c r="H49">
-        <v>5.25</v>
-      </c>
-      <c r="I49">
-        <v>1.04</v>
-      </c>
-      <c r="J49">
-        <v>7.5</v>
-      </c>
-      <c r="K49">
-        <v>1.37</v>
-      </c>
-      <c r="L49">
-        <v>2.75</v>
-      </c>
-      <c r="M49">
-        <v>1.97</v>
-      </c>
-      <c r="N49">
-        <v>1.74</v>
-      </c>
-      <c r="O49">
-        <v>1.48</v>
-      </c>
-      <c r="P49">
-        <v>2.64</v>
-      </c>
-      <c r="Q49">
-        <v>2.23</v>
-      </c>
-      <c r="R49">
-        <v>1.55</v>
-      </c>
-      <c r="S49">
-        <v>1.08</v>
-      </c>
-      <c r="T49">
-        <v>1.22</v>
-      </c>
-      <c r="U49">
-        <v>2.39</v>
-      </c>
-      <c r="V49">
-        <v>2.25</v>
-      </c>
-      <c r="W49">
-        <v>0.25</v>
-      </c>
-      <c r="X49">
-        <v>1.54</v>
-      </c>
-      <c r="Y49">
-        <v>0.82</v>
-      </c>
-      <c r="Z49">
-        <v>2.36</v>
-      </c>
-      <c r="AA49">
-        <v>0</v>
-      </c>
-      <c r="AB49">
-        <v>0</v>
-      </c>
-      <c r="AC49">
-        <v>0</v>
-      </c>
-      <c r="AD49">
-        <v>0</v>
-      </c>
-      <c r="AE49">
-        <v>0</v>
-      </c>
-      <c r="AF49">
-        <v>0</v>
-      </c>
-      <c r="AG49">
-        <v>0</v>
-      </c>
-      <c r="AH49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:34">
-      <c r="A50" t="s">
-        <v>56</v>
-      </c>
-      <c r="B50" s="2">
-        <v>45009.875</v>
-      </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="D50" t="s">
-        <v>107</v>
-      </c>
-      <c r="E50" t="s">
-        <v>156</v>
-      </c>
-      <c r="F50">
-        <v>1.57</v>
-      </c>
-      <c r="G50">
-        <v>3.8</v>
-      </c>
-      <c r="H50">
-        <v>4.75</v>
-      </c>
-      <c r="I50">
-        <v>1.05</v>
-      </c>
-      <c r="J50">
-        <v>9</v>
-      </c>
-      <c r="K50">
-        <v>1.22</v>
-      </c>
-      <c r="L50">
-        <v>3.83</v>
-      </c>
-      <c r="M50">
-        <v>1.67</v>
-      </c>
-      <c r="N50">
-        <v>2</v>
-      </c>
-      <c r="O50">
-        <v>1.32</v>
-      </c>
-      <c r="P50">
-        <v>3.05</v>
-      </c>
-      <c r="Q50">
-        <v>1.8</v>
-      </c>
-      <c r="R50">
-        <v>1.96</v>
-      </c>
-      <c r="S50">
-        <v>1.1</v>
-      </c>
-      <c r="T50">
-        <v>1.25</v>
-      </c>
-      <c r="U50">
-        <v>2.4</v>
-      </c>
-      <c r="V50">
-        <v>1</v>
-      </c>
-      <c r="W50">
-        <v>0</v>
-      </c>
-      <c r="X50">
-        <v>0</v>
-      </c>
-      <c r="Y50">
-        <v>0</v>
-      </c>
-      <c r="Z50">
-        <v>0</v>
-      </c>
-      <c r="AA50">
-        <v>0</v>
-      </c>
-      <c r="AB50">
-        <v>0</v>
-      </c>
-      <c r="AC50">
-        <v>0</v>
-      </c>
-      <c r="AD50">
-        <v>0</v>
-      </c>
-      <c r="AE50">
-        <v>0</v>
-      </c>
-      <c r="AF50">
-        <v>0</v>
-      </c>
-      <c r="AG50">
-        <v>0</v>
-      </c>
-      <c r="AH50">
         <v>0</v>
       </c>
     </row>
